--- a/medicine/Pharmacie/Altrétamine/Altrétamine.xlsx
+++ b/medicine/Pharmacie/Altrétamine/Altrétamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Altr%C3%A9tamine</t>
+          <t>Altrétamine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'altrétamine, est vendue sous la marque Hexalen[1].
+L'altrétamine, est vendue sous la marque Hexalen.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Altr%C3%A9tamine</t>
+          <t>Altrétamine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Est un médicament utilisé pour traiter le cancer de l'ovaire[1]. Plus précisément, il est utilisé pour les maladies avancées lorsque les autres traitements ne sont pas efficaces[1]. Elle est administrée par voie orale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est un médicament utilisé pour traiter le cancer de l'ovaire. Plus précisément, il est utilisé pour les maladies avancées lorsque les autres traitements ne sont pas efficaces. Elle est administrée par voie orale.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Altr%C3%A9tamine</t>
+          <t>Altrétamine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent les nausées, les vomissements, la diarrhée, la perte de cheveux, la suppression de la moelle osseuse, les problèmes nerveux périphériques et les éruptions cutanées[1]; d'autres effets secondaires peuvent inclure des troubles de l'humeur et d'autres cancers[2]. L'utilisation pendant la grossesse peut nuire au fœtus[2]. C'est un agent alkylant[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent les nausées, les vomissements, la diarrhée, la perte de cheveux, la suppression de la moelle osseuse, les problèmes nerveux périphériques et les éruptions cutanées; d'autres effets secondaires peuvent inclure des troubles de l'humeur et d'autres cancers. L'utilisation pendant la grossesse peut nuire au fœtus. C'est un agent alkylant.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Altr%C3%A9tamine</t>
+          <t>Altrétamine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce médicament a été approuvée pour un usage médical aux États-Unis en 1990[1]. Depuis 2022, il n'est plus disponible dans le commerce aux États-Unis[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce médicament a été approuvée pour un usage médical aux États-Unis en 1990. Depuis 2022, il n'est plus disponible dans le commerce aux États-Unis.
 </t>
         </is>
       </c>
